--- a/xlsx/信息论_intext.xlsx
+++ b/xlsx/信息论_intext.xlsx
@@ -29,7 +29,7 @@
     <t>数学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_信息论</t>
+    <t>政策_政策_政治学_信息论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B2%E7%A1%AC%E5%B9%A3</t>
   </si>
   <si>
-    <t>擲硬幣</t>
+    <t>掷硬币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E5%99%AA%E4%BF%A1%E9%81%93%E7%BC%96%E7%A0%81%E5%AE%9A%E7%90%86</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B6%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>航海家計畫</t>
+    <t>航海家计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%90%86%E8%AB%96%E5%AE%89%E5%85%A8%E6%80%A7</t>
   </si>
   <si>
-    <t>資訊理論安全性</t>
+    <t>资讯理论安全性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E6%9B%BC%E5%B8%B8%E6%95%B8</t>
   </si>
   <si>
-    <t>波茲曼常數</t>
+    <t>波兹曼常数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E6%9B%BC%E7%86%B5%E5%85%AC%E5%BC%8F</t>
   </si>
   <si>
-    <t>波茲曼熵公式</t>
+    <t>波兹曼熵公式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%88%99%E7%B3%BB%E7%BB%BC</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%B0%8F%E5%AE%9A%E7%90%86</t>
   </si>
   <si>
-    <t>貝氏定理</t>
+    <t>贝氏定理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E4%BF%A1%E6%81%AF</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%88%BE%E6%A3%AE%E5%8D%A1%E6%96%B9%E6%AA%A2%E5%AE%9A</t>
   </si>
   <si>
-    <t>皮爾森卡方檢定</t>
+    <t>皮尔森卡方检定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E4%BC%A0%E8%BE%93</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%B9%BE%E4%BD%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>有限幾何學</t>
+    <t>有限几何学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%93%E6%89%91%E5%AD%A6</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88</t>
   </si>
   <si>
-    <t>組合</t>
+    <t>组合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E5%87%BD%E5%88%86%E6%9E%90</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A3%E5%91%B3%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>趣味數學</t>
+    <t>趣味数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E7%90%86%E8%AE%BA</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E8%A8%AD%E8%A8%88%E8%87%AA%E5%8B%95%E5%8C%96</t>
   </si>
   <si>
-    <t>電子設計自動化</t>
+    <t>电子设计自动化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E6%9E%B6%E6%9E%84</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%AD%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>直譯器</t>
+    <t>直译器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%97%B4%E4%BB%B6</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>虛擬機器</t>
+    <t>虚拟机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>程式語言理論</t>
+    <t>程式语言理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91%E5%B7%A5%E5%85%B7</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%AD%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>編譯器</t>
+    <t>编译器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E5%9F%9F%E7%89%B9%E5%AE%9A%E8%AF%AD%E8%A8%80</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E6%A1%86%E6%9E%B6</t>
   </si>
   <si>
-    <t>軟體框架</t>
+    <t>软体框架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%88%90%E5%BC%80%E5%8F%91%E7%8E%AF%E5%A2%83</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BD%E5%BC%8F%E5%BA%AB</t>
   </si>
   <si>
-    <t>函式庫</t>
+    <t>函式库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>軟體維護</t>
+    <t>软体维护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E8%BD%AF%E4%BB%B6</t>
@@ -1031,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E6%95%B8%E6%93%9A%E5%AD%98%E8%B2%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>電腦數據存貯器</t>
+    <t>电脑数据存贮器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Enterprise_information_system</t>
@@ -1073,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>數位圖書館</t>
+    <t>数位图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E5%B9%B3%E5%8F%B0</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>數位行銷</t>
+    <t>数位行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E7%BB%B4%E7%BD%91</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%AA%A2%E7%B4%A2</t>
   </si>
   <si>
-    <t>信息檢索</t>
+    <t>信息检索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%AE%89%E5%85%A8</t>
@@ -1169,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%8A%E5%A4%A9%E6%A9%9F%E5%99%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>聊天機器人</t>
+    <t>聊天机器人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B6%E5%8F%91%E6%80%A7</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>多元處理</t>
+    <t>多元处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD</t>
@@ -1259,13 +1259,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E7%9D%A3%E5%BC%8F%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>監督式學習</t>
+    <t>监督式学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%9B%A3%E7%9D%A3%E5%BC%8F%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>非監督式學習</t>
+    <t>非监督式学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%BA%E5%8C%96%E5%AD%A6%E4%B9%A0</t>
@@ -1277,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E5%8F%89%E9%A9%97%E8%AD%89</t>
   </si>
   <si>
-    <t>交叉驗證</t>
+    <t>交叉验证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%9B%BE%E5%BD%A2%E5%AD%A6</t>
@@ -1307,13 +1307,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E9%A3%BE%E7%85%A7%E7%89%87</t>
   </si>
   <si>
-    <t>修飾照片</t>
+    <t>修饰照片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BD%A2%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>圖形處理器</t>
+    <t>图形处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%8E%B0%E5%AE%9E</t>
@@ -1373,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算社會科學</t>
+    <t>计算社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
@@ -1391,13 +1391,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%87%BA%E7%89%88</t>
   </si>
   <si>
-    <t>電子出版</t>
+    <t>电子出版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%88%B0</t>
   </si>
   <si>
-    <t>網絡戰</t>
+    <t>网络战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%B8%B8%E6%88%8F</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF%E5%AD%A6</t>
@@ -1445,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1457,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
